--- a/REPORTE SEMANAL 1-DANIELA MENDEZ RAIZ.xlsx
+++ b/REPORTE SEMANAL 1-DANIELA MENDEZ RAIZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\becario2_TI\Documents\Reporte semanal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A95B6F05-C60E-4193-BF6B-057BFF786C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D302A93-AE19-4AAC-B200-B1B5FF1410D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,25 +98,25 @@
 </t>
   </si>
   <si>
-    <t>Actualización de telefonos celulares. 
-Relleno de toner en los contenedores de las impresoras.</t>
-  </si>
-  <si>
-    <t>Se realizo la migración de datos pérsonales para reposición de equipo móvil.
-Se analizo la propuesta de realizar un sistema de lector de codigos de barras.</t>
-  </si>
-  <si>
     <t>1:30pm a 5:20pm</t>
   </si>
   <si>
-    <t>Se investigaron los programas a ocupar para el lector de codigos de barras, asi como librerias, programas, y servidores.</t>
-  </si>
-  <si>
-    <t>Asignación y limpieza de equipos de computo.
-Investigación de los lectores de codigos de barras que estan en venta para poder llevar a cabo una propuesta de estos mismo.</t>
-  </si>
-  <si>
     <t>ISC</t>
+  </si>
+  <si>
+    <t>Actualización de teléfonos celulares. 
+Relleno de toner en los contenedores de las impresoras</t>
+  </si>
+  <si>
+    <t>Se realizo la migración de datos personales para reposición de equipo móvil.
+Se analizo la propuesta de realizar un sistema de lector de códigos de barras.</t>
+  </si>
+  <si>
+    <t>Se investigaron los programas a ocupar para el lector de códigos de barras, así como librerías, programas, y servidores.</t>
+  </si>
+  <si>
+    <t>Asignación y limpieza de equipos de cómputo.
+Investigación de los lectores de códigos de barras que están en venta para poder llevar a cabo una propuesta de estos mismo.</t>
   </si>
 </sst>
 </file>
@@ -653,9 +653,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -718,6 +715,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1159,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,7 +1191,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>21</v>
@@ -1271,74 +1271,74 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="14">
         <v>45910</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="33"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="15">
         <v>45911</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="35"/>
+      <c r="C10" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="34"/>
       <c r="E10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="15">
         <v>45912</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="28"/>
+      <c r="C11" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="49"/>
       <c r="E11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="15">
         <v>45915</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="28"/>
+      <c r="C12" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="49"/>
       <c r="E12" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="15">
         <v>45917</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="28"/>
+      <c r="C13" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="49"/>
       <c r="E13" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F13" s="7"/>
     </row>
@@ -1367,16 +1367,16 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="29"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="29"/>
+      <c r="F18" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -1492,66 +1492,66 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="47"/>
     </row>
     <row r="9" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
     </row>
     <row r="10" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
     </row>
     <row r="11" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
     </row>
     <row r="12" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
     </row>
     <row r="13" spans="1:6" ht="70.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="44"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -1586,16 +1586,16 @@
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="36"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="36"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:6" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>

--- a/REPORTE SEMANAL 1-DANIELA MENDEZ RAIZ.xlsx
+++ b/REPORTE SEMANAL 1-DANIELA MENDEZ RAIZ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\becario2_TI\Documents\Reporte semanal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D302A93-AE19-4AAC-B200-B1B5FF1410D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE44EB18-6ABE-4694-82CA-34062C510F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REPORTE SEMANAL" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>TECNOLOGICO DE ESTUDIOS SUPERIORES DE VILLLA GUERRERO</t>
   </si>
@@ -61,22 +61,10 @@
     <t xml:space="preserve">ASESOR EXTERNO: </t>
   </si>
   <si>
-    <t>NOMBRE ALUMNO</t>
-  </si>
-  <si>
     <t>ASESOR INTERNO:</t>
   </si>
   <si>
-    <t>FECHA DE ELABORACION DE REPORTE</t>
-  </si>
-  <si>
     <t>EVIDENCIAS</t>
-  </si>
-  <si>
-    <t>LOGO CARRERA</t>
-  </si>
-  <si>
-    <t>NOMBRE DE LA CARRERA</t>
   </si>
   <si>
     <t xml:space="preserve">LOGO DE LA CARRERA </t>
@@ -887,6 +875,206 @@
             </a14:hiddenLine>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>211667</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>695475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>539248</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>15118</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C03ADA11-FB3E-0B6E-E540-AE215B00C883}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="211667" y="2388808"/>
+          <a:ext cx="3850319" cy="2887739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428719</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>77863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1071562</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>399408</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagen 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBB49AD8-5417-16F9-9B6A-1204FE795E5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6014735" y="1744738"/>
+          <a:ext cx="2805811" cy="2107483"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>546364</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>511968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1002110</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>695739</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagen 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2702CCB0-B252-9E38-F1B6-A3BA66FFF424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6132380" y="3964781"/>
+          <a:ext cx="2618714" cy="1969708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>29766</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>109140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1666876</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>99219</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Imagen 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9005067-7A2F-BB39-0431-06688E54D3E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7778750" y="109140"/>
+          <a:ext cx="1637110" cy="694532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1159,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:D13"/>
+    <sheetView view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,16 +1373,16 @@
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="20" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>2</v>
@@ -1278,11 +1466,11 @@
         <v>45910</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F9" s="7"/>
     </row>
@@ -1292,11 +1480,11 @@
         <v>45911</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F10" s="7"/>
     </row>
@@ -1306,11 +1494,11 @@
         <v>45912</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F11" s="7"/>
     </row>
@@ -1320,11 +1508,11 @@
         <v>45915</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D12" s="49"/>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F12" s="7"/>
     </row>
@@ -1334,11 +1522,11 @@
         <v>45917</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D13" s="49"/>
       <c r="E13" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F13" s="7"/>
     </row>
@@ -1368,7 +1556,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="4"/>
@@ -1406,10 +1594,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="63" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:F13"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,17 +1624,15 @@
         <v>1</v>
       </c>
       <c r="E1" s="10"/>
-      <c r="F1" s="20" t="s">
-        <v>15</v>
-      </c>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>2</v>
@@ -1468,8 +1657,8 @@
       <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>13</v>
+      <c r="C4" s="25">
+        <v>45917</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
@@ -1503,7 +1692,7 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="46"/>
       <c r="C8" s="46"/>
@@ -1587,7 +1776,7 @@
     </row>
     <row r="19" spans="1:6" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="35"/>
       <c r="C19" s="12"/>
@@ -1629,6 +1818,7 @@
     <mergeCell ref="A7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>